--- a/medicine/Pharmacie/Isavuconazole/Isavuconazole.xlsx
+++ b/medicine/Pharmacie/Isavuconazole/Isavuconazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'isavuconazole est un médicament antimycosique de type triazole.
 </t>
@@ -511,9 +523,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa demi-vie d'élimination est de l'ordre de deux à trois jours, avec une biodisponibilité importante lorsqu'il est administré par voie orale[1]. Il est administré en une prise journalière. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa demi-vie d'élimination est de l'ordre de deux à trois jours, avec une biodisponibilité importante lorsqu'il est administré par voie orale. Il est administré en une prise journalière. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Spectre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'isavuconazole est actif contre l'aspergillose[2], la mucormycose[3], les candidoses[4]  dans leur formes viscérales, ainsi que sur différentes espèces de cryptococcus[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'isavuconazole est actif contre l'aspergillose, la mucormycose, les candidoses  dans leur formes viscérales, ainsi que sur différentes espèces de cryptococcus.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est disponible en gélules et en soluté injectable. Il semble aussi efficace que le voriconazole dans les mycoses systémiques, avec moins d'effets secondaires[6]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est disponible en gélules et en soluté injectable. Il semble aussi efficace que le voriconazole dans les mycoses systémiques, avec moins d'effets secondaires. 
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa tolérance est bonne. Comme tout imidazole, il existe des interactions médicamenteuses, la molécule agissant sur le cytochrome P450[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa tolérance est bonne. Comme tout imidazole, il existe des interactions médicamenteuses, la molécule agissant sur le cytochrome P450.
 </t>
         </is>
       </c>
